--- a/5_results/5_3_mix/feature_importance_set_8.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_8.xlsx
@@ -472,122 +472,122 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.04402957615314249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.003701897573836027</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>5.940438227293043e-06</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.05165183442333276</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.03640731788295223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.009905569410872594</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.002699539263530468</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>0.0006011647332781559</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.01546395806607959</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.004347180755665603</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.00357871267825649</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.001020190162938756</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.0007134229965815272</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.005679298324273916</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.001478127032239064</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.00240830783028354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0007484290915434061</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.0009885144885476245</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.003949333674160766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.0008672819864063148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.001662582056932416</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0005744916409287353</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.00146900861836149</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.002845468285922984</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.0004796958279418475</v>
       </c>
     </row>
     <row r="7">
@@ -597,347 +597,347 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.00163063263391936</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0004588880314465768</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.0006793002490062047</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.00257548943317448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>0.0006857758346642401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>0.001594736225668991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>0.0007951397508282008</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.005475258537410919</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.00323193996262353</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-4.246751128554756e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>0.00136614051476569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>0.0005450337907569532</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.002488405025993538</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>0.002488372623101801</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>0.0002439084064295789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>0.0009451626929494417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>0.0004551732147712936</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.004855456096996558</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>0.001882370633325931</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>7.954752572952644e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>0.0008574120839783594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>0.0002731956029031277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.001085681777868728</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>0.001419925606320406</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>0.0002948985616363124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0.0007321871052978546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0.0002011864990176696</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.0006202776325449249</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0.001146432887468159</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0.0003179413231275497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0.0006308833357517418</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>0.0004695472131913221</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.01988495374412279</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>0.001597687537544841</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>-0.000335920866041357</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>0.0004093376218888167</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>0.0001952665139616627</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.004697679010104276</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>0.0008113940730059145</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>7.281170771718964e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>0.0003541784892528543</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>0.0002820595825244055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.02421260003354202</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>0.0009349430681483304</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>-0.0002265860896426218</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>0.0002552066368237904</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>0.0001356858752623335</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.006816378928897161</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>0.0005345857293670292</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>-2.417245571944838e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>0.0002095856799806617</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>6.16759642026205e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.0008047222503082168</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>0.0003365773427262735</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>8.259401723504991e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>0.0001698598801935347</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>0.0001411347210417964</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.02729573381327554</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>0.0004604582215077398</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>-0.0001207384611206704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>6.328452120840655e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>2.898012350877222e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.004071640359577106</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>0.000122954996060842</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>3.614046355971094e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>1.264304264116944e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>1.731226657179067e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.08890456945389032</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>4.828923879343905e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>-2.300315351110016e-05</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_8.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_8.xlsx
@@ -468,426 +468,426 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-color-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04402957615314249</v>
+        <v>0.09741880548278541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003701897573836027</v>
+        <v>0.009944744857017596</v>
       </c>
       <c r="D2" t="n">
-        <v>5.940438227293043e-06</v>
+        <v>1.285210695493578e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05165183442333276</v>
+        <v>0.1178951725943656</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03640731788295223</v>
+        <v>0.07694243837120521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009905569410872594</v>
+        <v>0.08615156162200147</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002699539263530468</v>
+        <v>0.007555923742577617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006011647332781559</v>
+        <v>7.028097111697517e-06</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01546395806607959</v>
+        <v>0.1017093130419332</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004347180755665603</v>
+        <v>0.07059381020206974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-Stroop-color-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00357871267825649</v>
+        <v>0.01853280593589481</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001020190162938756</v>
+        <v>0.001913304160708839</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0007134229965815272</v>
+        <v>1.344020576496707e-05</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.005679298324273916</v>
+        <v>0.02247232564746811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001478127032239064</v>
+        <v>0.01459328622432151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00240830783028354</v>
+        <v>0.01550312724635947</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0007484290915434061</v>
+        <v>0.00107049586749516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0009885144885476245</v>
+        <v>2.710741406869675e-06</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003949333674160766</v>
+        <v>0.01770729303335726</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0008672819864063148</v>
+        <v>0.01329896145936168</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001662582056932416</v>
+        <v>0.01070502057717992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005744916409287353</v>
+        <v>0.001203187781623645</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00146900861836149</v>
+        <v>1.883150603757926e-05</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002845468285922984</v>
+        <v>0.01318240084936542</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004796958279418475</v>
+        <v>0.008227640304994432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00163063263391936</v>
+        <v>0.007898956141406321</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0004588880314465768</v>
+        <v>0.001040475944260857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0006793002490062047</v>
+        <v>3.530608605506914e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00257548943317448</v>
+        <v>0.01004131049154525</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0006857758346642401</v>
+        <v>0.005756601791267395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001594736225668991</v>
+        <v>0.005456191482718564</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0007951397508282008</v>
+        <v>0.0004535396130275548</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005475258537410919</v>
+        <v>5.676664663381502e-06</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00323193996262353</v>
+        <v>0.006390035814525919</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.246751128554756e-05</v>
+        <v>0.004522347150911208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00136614051476569</v>
+        <v>0.005026857145261609</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0005450337907569532</v>
+        <v>0.0006278397416039495</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002488405025993538</v>
+        <v>2.860295826554736e-05</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002488372623101801</v>
+        <v>0.006319587850891553</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002439084064295789</v>
+        <v>0.003734126439631665</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0009451626929494417</v>
+        <v>0.004478164404256746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004551732147712936</v>
+        <v>0.0002778341749140229</v>
       </c>
       <c r="D10" t="n">
-        <v>0.004855456096996558</v>
+        <v>1.768879035735247e-06</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001882370633325931</v>
+        <v>0.005050228810481104</v>
       </c>
       <c r="G10" t="n">
-        <v>7.954752572952644e-06</v>
+        <v>0.003906099998032387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0008574120839783594</v>
+        <v>0.004214242604824459</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0002731956029031277</v>
+        <v>0.0008095061968299741</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001085681777868728</v>
+        <v>0.0001556375062873241</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001419925606320406</v>
+        <v>0.005881027052662034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002948985616363124</v>
+        <v>0.002547458156986883</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0007321871052978546</v>
+        <v>0.003771954248092047</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0002011864990176696</v>
+        <v>0.0002954090279990136</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0006202776325449249</v>
+        <v>4.477826348530851e-06</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001146432887468159</v>
+        <v>0.004380205519728685</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003179413231275497</v>
+        <v>0.003163702976455408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006308833357517418</v>
+        <v>0.003422256029973192</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004695472131913221</v>
+        <v>0.0007993953144667291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01988495374412279</v>
+        <v>0.0003326787045792399</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001597687537544841</v>
+        <v>0.0050682220312776</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.000335920866041357</v>
+        <v>0.001776290028668783</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004093376218888167</v>
+        <v>0.002626130273366512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001952665139616627</v>
+        <v>0.0004500036699783556</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004697679010104276</v>
+        <v>9.953275136712718e-05</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008113940730059145</v>
+        <v>0.003552694049563639</v>
       </c>
       <c r="G14" t="n">
-        <v>7.281170771718964e-06</v>
+        <v>0.001699566497169384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003541784892528543</v>
+        <v>0.002065788830526793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002820595825244055</v>
+        <v>0.000246575642916112</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02421260003354202</v>
+        <v>2.390193230209681e-05</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0009349430681483304</v>
+        <v>0.002573491487328628</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0002265860896426218</v>
+        <v>0.001558086173724959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0002552066368237904</v>
+        <v>0.001923162235853937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001356858752623335</v>
+        <v>0.0002399383961411502</v>
       </c>
       <c r="D16" t="n">
-        <v>0.006816378928897161</v>
+        <v>2.848108090015684e-05</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005345857293670292</v>
+        <v>0.002417198709809626</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.417245571944838e-05</v>
+        <v>0.001429125761898248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0002095856799806617</v>
+        <v>0.001617042317025508</v>
       </c>
       <c r="C17" t="n">
-        <v>6.16759642026205e-05</v>
+        <v>0.0002688486148890478</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0008047222503082168</v>
+        <v>8.840719884723915e-05</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0003365773427262735</v>
+        <v>0.002170605330964805</v>
       </c>
       <c r="G17" t="n">
-        <v>8.259401723504991e-05</v>
+        <v>0.001063479303086211</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001698598801935347</v>
+        <v>0.001269880230025589</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001411347210417964</v>
+        <v>0.0001758869699734256</v>
       </c>
       <c r="D18" t="n">
-        <v>0.02729573381327554</v>
+        <v>4.305632987739092e-05</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004604582215077398</v>
+        <v>0.001632033932217143</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0001207384611206704</v>
+        <v>0.0009077265278340341</v>
       </c>
     </row>
     <row r="19">
@@ -897,47 +897,47 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.328452120840655e-05</v>
+        <v>0.0006573462105555983</v>
       </c>
       <c r="C19" t="n">
-        <v>2.898012350877222e-05</v>
+        <v>0.0003013491552210478</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004071640359577106</v>
+        <v>0.004087271603573949</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000122954996060842</v>
+        <v>0.001277828286243688</v>
       </c>
       <c r="G19" t="n">
-        <v>3.614046355971094e-06</v>
+        <v>3.686413486750828e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.264304264116944e-05</v>
+        <v>0.0004441440508921479</v>
       </c>
       <c r="C20" t="n">
-        <v>1.731226657179067e-05</v>
+        <v>0.0001182715796406895</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08890456945389032</v>
+        <v>0.0005503287756081513</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>4.828923879343905e-05</v>
+        <v>0.0006876668680592779</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.300315351110016e-05</v>
+        <v>0.000200621233725018</v>
       </c>
     </row>
   </sheetData>
